--- a/run/output/iecorrect/iecorrect-stringid.xlsx
+++ b/run/output/iecorrect/iecorrect-stringid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\iefieldkit\run\output\iecorrect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2F13C-37B0-4FC9-81C5-F9216E37DF62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568E89D-3393-495F-A2CA-B2EE3636EF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>make</t>
   </si>
@@ -482,7 +482,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,7 +523,9 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
